--- a/medicine/Psychotrope/Observatoire_européen_des_drogues_et_des_toxicomanies/Observatoire_européen_des_drogues_et_des_toxicomanies.xlsx
+++ b/medicine/Psychotrope/Observatoire_européen_des_drogues_et_des_toxicomanies/Observatoire_européen_des_drogues_et_des_toxicomanies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Observatoire_europ%C3%A9en_des_drogues_et_des_toxicomanies</t>
+          <t>Observatoire_européen_des_drogues_et_des_toxicomanies</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Observatoire européen des drogues et des toxicomanies ou OEDT (European Monitoring Centre for Drugs and Drug Addiction ou EMCDDA en anglais) est l'agence européenne qui centralise les informations relatives aux drogues et à la toxicomanie. Créé en 1993 et basé à Lisbonne, il est pleinement opérationnel depuis 1995.
